--- a/data/trans_bre/P1427-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1427-Estudios-trans_bre.xlsx
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.8470059607459101</v>
+        <v>-1.161122561840862</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.288553417426861</v>
+        <v>1.040433329091743</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3396425744849926</v>
+        <v>0.2980623644130476</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.1526749289567931</v>
+        <v>-0.1843215949055087</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3371868414483252</v>
+        <v>0.291974044536732</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0227730906968301</v>
+        <v>0.02424082392673638</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.189747340713436</v>
+        <v>2.921544860745178</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.001686430350386</v>
+        <v>4.866764512643543</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.78203015951489</v>
+        <v>5.733853296718232</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.8078309112831483</v>
+        <v>0.7219347472576509</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.560389060274202</v>
+        <v>2.565317648256172</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6596794052911711</v>
+        <v>0.6728769544711566</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.3679045581621968</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.07472277322564252</v>
+        <v>0.07472277322564287</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.3177393005220102</v>
@@ -709,7 +709,7 @@
         <v>0.6413604842800824</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04160668664788198</v>
+        <v>0.04160668664788218</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.8409006913115955</v>
+        <v>-0.8457912300680142</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.1401842836667958</v>
+        <v>-0.1090619565016123</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.5933457865738797</v>
+        <v>-0.6601997584232955</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7525952256146566</v>
+        <v>-0.7608671234559883</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2495350494344164</v>
+        <v>-0.2238506841114288</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2695382029480476</v>
+        <v>-0.2915226973726204</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.347936037602783</v>
+        <v>0.41211697473568</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9748245972996809</v>
+        <v>0.9644369709383784</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.747966083429828</v>
+        <v>0.6777262531543813</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7294969700170182</v>
+        <v>0.942658316820854</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.711772917099767</v>
+        <v>2.840528875925624</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5194807080412308</v>
+        <v>0.4824270488654341</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>0.4153071013733984</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.6184984491701785</v>
+        <v>0.6184984491701788</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-0.2507067231262252</v>
@@ -791,7 +791,7 @@
         <v>0.6062017295984146</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4166160650540786</v>
+        <v>0.4166160650540788</v>
       </c>
     </row>
     <row r="11">
@@ -802,18 +802,20 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.976761634103994</v>
+        <v>-0.9818029629566747</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5294196056371606</v>
+        <v>-0.6411671048396269</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4406593638063409</v>
+        <v>-0.5829678494975679</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
-      <c r="G11" s="6" t="inlineStr"/>
+      <c r="G11" s="6" t="n">
+        <v>-0.7475858900794817</v>
+      </c>
       <c r="H11" s="6" t="n">
-        <v>-0.2390721250852751</v>
+        <v>-0.3331275422295148</v>
       </c>
     </row>
     <row r="12">
@@ -824,18 +826,20 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7019065359264133</v>
+        <v>0.6907022371396293</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.886029796665372</v>
+        <v>1.837659240892449</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.03584378780683</v>
+        <v>1.930328179747003</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
-      <c r="G12" s="6" t="inlineStr"/>
+      <c r="G12" s="6" t="n">
+        <v>8.969121541885487</v>
+      </c>
       <c r="H12" s="6" t="n">
-        <v>1.979181072158565</v>
+        <v>1.840917894285353</v>
       </c>
     </row>
     <row r="13">
@@ -856,7 +860,7 @@
         <v>1.230386085049038</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1.323725563757089</v>
+        <v>1.323725563757087</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.3323580740589971</v>
@@ -865,7 +869,7 @@
         <v>1.174339608904059</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4245408326234088</v>
+        <v>0.4245408326234082</v>
       </c>
     </row>
     <row r="14">
@@ -876,22 +880,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.0557460927222066</v>
+        <v>-0.1601390196904431</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6470700115648017</v>
+        <v>0.7001566316837349</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.576648582528412</v>
+        <v>0.5896661348279969</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.03440123713737708</v>
+        <v>-0.073247745469184</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5178104451718847</v>
+        <v>0.4816338759146944</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1525611184557472</v>
+        <v>0.1592132923981455</v>
       </c>
     </row>
     <row r="15">
@@ -902,22 +906,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.420599899008074</v>
+        <v>1.352397111520944</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.895620144478791</v>
+        <v>1.872053989456736</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.049515500153686</v>
+        <v>2.060391440469236</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8893887301541755</v>
+        <v>0.8160825435049017</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.344676676720893</v>
+        <v>2.175329126744709</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7477029466347972</v>
+        <v>0.7222804624880633</v>
       </c>
     </row>
     <row r="16">
